--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_JP.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_JP.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
-    <sheet name="テスト報告" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Report" sheetId="5" r:id="rId3"/>
+    <sheet name="テスト項目一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="テスト報告" sheetId="5" r:id="rId3"/>
     <sheet name="User Module" sheetId="9" r:id="rId4"/>
     <sheet name="Mod Module" sheetId="12" r:id="rId5"/>
     <sheet name="Admin Module" sheetId="10" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTION" localSheetId="4">#REF!</definedName>
@@ -312,68 +313,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="350">
   <si>
     <t>TEST CASE LIST</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Module Code</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Test requirement</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Tester</t>
-  </si>
-  <si>
     <t>Untested</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Number of Test cases</t>
-  </si>
-  <si>
     <t>Untesed</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Test Case Description</t>
-  </si>
-  <si>
-    <t>Test Case Procedure</t>
-  </si>
-  <si>
-    <t>Expected Output</t>
-  </si>
-  <si>
-    <t>Inter-test case Dependence</t>
-  </si>
-  <si>
-    <t>Test date</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Module code</t>
-  </si>
-  <si>
-    <t>Number of  test cases</t>
-  </si>
-  <si>
     <t>Sub total</t>
   </si>
   <si>
@@ -405,15 +367,6 @@
   </si>
   <si>
     <t>Add new</t>
-  </si>
-  <si>
-    <t>Admin_Function</t>
-  </si>
-  <si>
-    <t>Integration Logout with Login</t>
-  </si>
-  <si>
-    <t>Check user logout when user logout with "Logout" link</t>
   </si>
   <si>
     <t>Execute all Registered User unit test cases and passed</t>
@@ -432,31 +385,10 @@
     <t>Back to Check Report</t>
   </si>
   <si>
-    <t>Check requirement</t>
-  </si>
-  <si>
-    <t>This Check cases were created to Check integration between login with all functions and all functions together</t>
-  </si>
-  <si>
-    <t>Checker</t>
-  </si>
-  <si>
     <t>UnChecked</t>
   </si>
   <si>
     <t>Number of Check cases</t>
-  </si>
-  <si>
-    <t>Check Case Description</t>
-  </si>
-  <si>
-    <t>Check Case Procedure</t>
-  </si>
-  <si>
-    <t>Inter-Check case Dependence</t>
-  </si>
-  <si>
-    <t>Check date</t>
   </si>
   <si>
     <t>Security</t>
@@ -637,55 +569,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1. Login the system with Mod role.
-2. Click or mouse hover Avatar menu in header
-3. Click "Logout" button</t>
-  </si>
-  <si>
-    <t>Check "Dashboard" tab</t>
-  </si>
-  <si>
-    <t>1. The login of mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed
-3. Show Dashboard content 
-+ Total medicinal plant article
-+ Total remedy article
-+ Pending approved article</t>
-  </si>
-  <si>
-    <t>1. The login of mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed
-3. Show medicinal plant management content 
-4. Show new medicinal plant list:
-+ Medicinal plant 
-+ Author
-+ Posted date</t>
-  </si>
-  <si>
-    <t>Integration Login with "Dashboard" tab</t>
-  </si>
-  <si>
-    <t>Integration Login with "Medicinal plant management" tab</t>
-  </si>
-  <si>
-    <t>Integration Login with "Remedy management" tab</t>
-  </si>
-  <si>
-    <t>Check "remedy management" tab</t>
-  </si>
-  <si>
-    <t>Check "medicinal plant" management</t>
-  </si>
-  <si>
-    <t>1. The login of mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed
-3. Show remedy management content 
-4. Show new remedy list by default:
-+ Remedy
-+ Author
-+ Posted date</t>
-  </si>
-  <si>
     <t>Integration Remedy with HMS</t>
   </si>
   <si>
@@ -735,45 +618,10 @@
     <t>Integrating all functions of user together then execute test</t>
   </si>
   <si>
-    <t>User_Function</t>
-  </si>
-  <si>
-    <t>Mod_Function</t>
-  </si>
-  <si>
     <t>Check "Medicinal plants" tab</t>
   </si>
   <si>
     <t>Check "HMS" tab</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed
-2. Avatar menu is showed
-3. Logout user and redirect to homepage as guest rule</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button
-3. Click Dashboard tap</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" password "123456"
-3. Click "Login" button
-4. Click Medicinal plant management tab</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" password "123456"
-3. Click "Login" button
-4. Click remedy management tab</t>
-  </si>
-  <si>
-    <t>List enviroment requires in this system
-1. Server: Ubuntu 14.03
-2. Database server: MySQL server
-3. Browser: Google Chrome 40, Mozzila Firefox 30
-4. Operation System: Mac OS X</t>
   </si>
   <si>
     <t>Mod function</t>
@@ -1107,13 +955,6 @@
     <t>Integration Login with Dashboard</t>
   </si>
   <si>
-    <t>Integration Login with Medicinal Plants Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login VMN system by Mod role.
-</t>
-  </si>
-  <si>
     <t>When Mod click on "Logout" hyperlink</t>
   </si>
   <si>
@@ -1125,9 +966,6 @@
 2. "Dashboard" Page is displayed</t>
   </si>
   <si>
-    <t>[Admin module-20]</t>
-  </si>
-  <si>
     <t>Integration Login with User Management</t>
   </si>
   <si>
@@ -1145,35 +983,11 @@
 2. "User Management" Page is displayed</t>
   </si>
   <si>
-    <t>[Admin module-27]</t>
-  </si>
-  <si>
-    <t>Integration Login with Waiting HMS Approval</t>
-  </si>
-  <si>
-    <t>Check "Waiting HMS Approval" Page</t>
-  </si>
-  <si>
-    <t>1. Login VMN system by Admin role
-2. Click on "Waiting HMS Approval" hyperlink</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. "Waiting HMS Approval" Page is displayed</t>
-  </si>
-  <si>
-    <t>[Admin module-35]</t>
-  </si>
-  <si>
     <t>When Admin click on "Logout" hyperlink</t>
   </si>
   <si>
     <t xml:space="preserve">1. Login VMN system by Admin role.
 2. Click on "Logout" hyperlink on Header
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login VMN system by Admin role.
 </t>
   </si>
   <si>
@@ -1327,6 +1141,527 @@
     <t>QuynhHTSE02639</t>
   </si>
   <si>
+    <t>Integration Advance Search with Medicinal Plants Detail</t>
+  </si>
+  <si>
+    <t>Integration Advance Search with Remedy Detail</t>
+  </si>
+  <si>
+    <t>Check "Medicinal Plants Article" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in VMN system by Member role
+2. Click on "Medicinal Plants" tab
+3. Click on "Advance Search" button
+4. Enter searching information then click "Search" button
+5. Click on "Medicinal Plants Article" hyperlink
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Medicinal Plants" tab is displayed
+3. "Advance Search" Page is displayed
+4. Search result is displayed in "Searching Result" Frame
+5. "Medicinal Plants Article Detail" Page is displayed </t>
+  </si>
+  <si>
+    <t>Check "Remedy Article" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Log in VMN system by Member role
+2. Click on "Remedy" tab
+3. Click on "Advance Search" button
+4. Enter searching information then click "Search" button
+5. Click on "Remedy Article" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Remedy" tab is displayed
+3. "Advance Search" Page is displayed
+4. Search result is displayed in "Searching Result" Frame
+5. "Remedy Article Detail" Page is displayed </t>
+  </si>
+  <si>
+    <t>[Medicinal Plants Article- 62]</t>
+  </si>
+  <si>
+    <t>[Remedy Article- 60]</t>
+  </si>
+  <si>
+    <t>When Admin click on "Detail" button on "User Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. Logout success and redirect to Login Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "User Detail" Page is displayed</t>
+  </si>
+  <si>
+    <t>When Admin click on "Detail" button on "HMS Pending" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink
+3. Click on "Detail" button of any user in "HMS Pending" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "HMS Pending" Page is displayed
+3. "HMS Detail" Page is displayed</t>
+  </si>
+  <si>
+    <t>Integration User Management with User Detail</t>
+  </si>
+  <si>
+    <t>Integration HMS Pending with HMS Detail</t>
+  </si>
+  <si>
+    <t>When Admin click on "Save" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page
+4. Click on "Save" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "User Detail" Page is displayed
+4. "User Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>When Admin click on "Accept" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink
+3. Click on "Detail" button of any user in "HMS Pending" Page
+4. Click on "Accept" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "HMS Pending" Page is displayed
+3. "HMS Detail" Page is displayed
+4. "HMS Pending" Page is displayed</t>
+  </si>
+  <si>
+    <t>When Admin click on "Deny" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink
+3. Click on "Detail" button of any user in "HMS Pending" Page
+4. Click on "Deny" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Login with HMS Pending </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "HMS Pending" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. Log out success and redirect to "Login" Page</t>
+  </si>
+  <si>
+    <t>Check "HMS Pending" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Dashboard" Page is displayed</t>
+  </si>
+  <si>
+    <t>Integration Login with Medicinal Plants Article Management</t>
+  </si>
+  <si>
+    <t>Check "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Logout" hyperlink on Header</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Dashboard" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>Integration Login with Remedy Article Management</t>
+  </si>
+  <si>
+    <t>Check "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Mod Module- 50]</t>
+  </si>
+  <si>
+    <t>Integration Medicinal Plants Articles Management with Medicinal Plants Article Detail</t>
+  </si>
+  <si>
+    <t>[Mod Module- 40]</t>
+  </si>
+  <si>
+    <t>When Mod click on "Accept" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Medicinal Plants Article Detail" Page is displayed
+4. "Medicinal Plants Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Mod Module- 41]</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Change content's Medicinal Plants Article" tab of "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Reported Medicinal Plants Article" tab of "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Deny" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Medicinal Plants Article Detail" Page is displayed
+</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Change content's Medicinal Plants Article" tab is displayed
+4. "Medicinal Plants Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Change content's Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Change content's Medicinal Plants Article" tab
+5. Click on "Deny" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Change content's Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Change content's Medicinal Plants Article" tab
+5. Click on "Accept" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Change content's Medicinal Plants Article" tab is displayed
+4. "Medicinal Plants Article Detail" Page is displayed
+5. "Change content's Medicinal Plants Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>[Mod Module- 42]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 43]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 44]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 45]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 46]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 47]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Change content's Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Change content's Medicinal Plants Article" tab
+</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Reported Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Reported Medicinal Plants Article" tab</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Reported Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Reported Medicinal Plants Article" tab
+5. Click on "Accept" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Reported Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Reported Medicinal Plants Article" tab
+5. Click on "Deny" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Reported Medicinal Plants Article" tab is displayed
+4. "Medicinal Plants Article Detail" Page is displayed
+5. "Reported Medicinal Plants Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>Integration Remedy Articles Management with Remedy Article Detail</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Medicinal Plants Article Pending" tab of "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Accept" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Deny" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Remedy Article Pending" tab of "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Change content's Remedy Article" tab of "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Reported Remedy Article" tab of "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Detail" button of any article on "Medicinal Plants Article Pending" tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Medicinal Plants Article" tab
+4. Click on "Accept" button on "Medicinal Plants Article Detail" Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Medicinal Plants Article" tab
+4. Click on "Deny" button on "Medicinal Plants Article Detail" Page </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Detail" button of any article on "Remedy Article Pending" tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Remedy Article Detail" Page is displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Remedy Article" tab
+4. Click on "Accept" button on "Remedy Article Detail" Page </t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Remedy Article Detail" Page is displayed
+4. "Remedy Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Remedy Article" tab
+4. Click on "Deny" button on "Remedy Article Detail" Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Change content's Remedy Article" tab
+4. Click on "Detail" button of any article on "Change content's Remedy Article" tab
+</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Change content's Remedy Article" tab is displayed
+4. "Remedy Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Change content's Remedy Article" tab
+4. Click on "Detail" button of any article on "Change content's Remedy Article" tab
+5. Click on "Accept" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Change content's Remedy Article" tab is displayed
+4. "Remedy Article Detail" Page is displayed
+5. "Change content's Remedy Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Change content's Remedy Article" tab
+4. Click on "Detail" button of any article on "Change content's Remedy Article" tab
+5. Click on "Deny" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Reported Remedy Article" tab
+4. Click on "Detail" button of any article on "Reported Remedy Article" tab</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Reported Remedy Article" tab
+4. Click on "Detail" button of any article on "Reported Remedy Article" tab
+5. Click on "Accept" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Reported Remedy Article" tab is displayed
+4. "Remedy Article Detail" Page is displayed
+5. "Reported Remedy Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Reported Remedy Article" tab
+4. Click on "Detail" button of any article on "Reported Remedy Article" tab
+5. Click on "Deny" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>[Mod Module- 54]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 55]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 56]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 57]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 58]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 59]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 60]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 61]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 62]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 18]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 20]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 36]</t>
+  </si>
+  <si>
+    <t>When Admin click on "Lock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page
+4. Click on "Lock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>When Admin click on "UnLock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page
+4. Click on "UnLock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>[Admin Module- 30]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 29]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 33]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 32]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 37]</t>
+  </si>
+  <si>
+    <t>[Admin module- 38]</t>
+  </si>
+  <si>
+    <t>[Admin module- 39]</t>
+  </si>
+  <si>
+    <t>[Admin module- 20]</t>
+  </si>
+  <si>
+    <t>[Admin module- 27]</t>
+  </si>
+  <si>
+    <t>[Admin module- 35]</t>
+  </si>
+  <si>
+    <t>Execute all Mod unit test cases
+ and passed</t>
+  </si>
+  <si>
+    <t>List enviroment requires in this system
+1. Server: Localhost
+2. Database server: MySQL server
+3. Browser: Google Chrome 40, Mozzila Firefox 30
+4. Operation System: Mac OS X</t>
+  </si>
+  <si>
     <t>プロジェクト名</t>
   </si>
   <si>
@@ -1363,22 +1698,132 @@
     <t>事前条件</t>
   </si>
   <si>
-    <t>テスト項目一覧</t>
-  </si>
-  <si>
     <t>ドキュメントコード</t>
   </si>
   <si>
     <t>備考</t>
   </si>
   <si>
-    <t>QuynhHT SE02639</t>
-  </si>
-  <si>
     <t>テストカバレッジ</t>
   </si>
   <si>
     <t>テスト成功カバレッジ</t>
+  </si>
+  <si>
+    <t>モジュールコード</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>不合格</t>
+    <rPh sb="0" eb="3">
+      <t>ふごうかく</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト項目数</t>
+    <rPh sb="5" eb="6">
+      <t>すう</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mod Module</t>
+  </si>
+  <si>
+    <t>Admin Module</t>
+  </si>
+  <si>
+    <t>QuynhHTse02639</t>
+  </si>
+  <si>
+    <t>TienNMse02545</t>
+  </si>
+  <si>
+    <t>22/02/2016</t>
+  </si>
+  <si>
+    <t>モジュールコード</t>
+  </si>
+  <si>
+    <t>テスト要求</t>
+    <rPh sb="3" eb="5">
+      <t>ようきゅう</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスター</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格</t>
+    <rPh sb="0" eb="2">
+      <t>ごうかく</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>未テスト</t>
+    <rPh sb="0" eb="1">
+      <t>み</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト項目数</t>
+  </si>
+  <si>
+    <t>テスト項目説明</t>
+    <rPh sb="5" eb="7">
+      <t>せつめい</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト項目手順</t>
+    <rPh sb="5" eb="7">
+      <t>てじゅん</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待結果</t>
+    <rPh sb="0" eb="2">
+      <t>きたい</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>けっか</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>依存テスト項目</t>
+    <rPh sb="0" eb="2">
+      <t>いぞん</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト
+実施日</t>
+    <rPh sb="4" eb="7">
+      <t>じっしび</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>びこう</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>This test cases were created to Check integration between login with all functions and all functions together</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1630,6 +2075,28 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1699,7 +2166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1749,13 +2216,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color indexed="8"/>
       </left>
       <right style="hair">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
@@ -1767,13 +2234,43 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1782,13 +2279,13 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1797,101 +2294,13 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1927,51 +2336,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2049,67 +2413,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -2327,6 +2631,82 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2335,7 +2715,173 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2407,7 +2953,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2440,31 +2986,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2501,46 +3047,43 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2549,39 +3092,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2597,25 +3111,25 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2623,22 +3137,16 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2656,7 +3164,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2665,67 +3173,43 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2733,7 +3217,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2742,278 +3226,361 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="39" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="47" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="33" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -3145,14 +3712,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3177,6 +3744,45 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="テスト報告"/>
+      <sheetName val="テスト項目一覧"/>
+      <sheetName val="Homepage"/>
+      <sheetName val="Medicinal plants Article"/>
+      <sheetName val="Remedy Article"/>
+      <sheetName val="Herbal medicine store"/>
+      <sheetName val="Personal Page"/>
+      <sheetName val="Authentication"/>
+      <sheetName val="Mod Module"/>
+      <sheetName val="Admin Module"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>テスト項目書</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3533,7 +4139,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+      <selection activeCell="B10" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -3551,13 +4157,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="209" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
+      <c r="C2" s="192" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3565,64 +4171,64 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B4" s="204" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="210" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="204" t="s">
-        <v>241</v>
+      <c r="B4" s="193" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="193" t="s">
+        <v>191</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B5" s="204" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="210" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="204" t="s">
-        <v>242</v>
+      <c r="B5" s="193" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="193" t="s">
+        <v>192</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="211" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="213" t="str">
+      <c r="B6" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="170" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="204" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="73">
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="193" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="61">
         <v>42422</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="212"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="204" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="133" t="s">
-        <v>21</v>
+      <c r="B7" s="195"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="193" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3638,61 +4244,61 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="199" t="s">
-        <v>230</v>
+      <c r="B10" s="157" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1">
-      <c r="B11" s="200" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="201" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="201" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="202" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="201" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="203" t="s">
-        <v>236</v>
+      <c r="B11" s="196" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="197" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="197" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="198" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="197" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="199" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1">
-      <c r="B12" s="74">
+      <c r="B12" s="62">
         <v>42422</v>
       </c>
-      <c r="C12" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>30</v>
+      <c r="C12" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>17</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="76"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="15"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="15"/>
       <c r="G14" s="18"/>
     </row>
@@ -3756,7 +4362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
@@ -3784,39 +4390,39 @@
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="216" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217" t="str">
+      <c r="B3" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="200"/>
+      <c r="D3" s="172" t="str">
         <f>表紙!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="216" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217" t="str">
+      <c r="B4" s="200" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="200"/>
+      <c r="D4" s="172" t="str">
         <f>表紙!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
     </row>
     <row r="5" spans="2:6" s="29" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="214" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="215" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
+      <c r="B5" s="201" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="201"/>
+      <c r="D5" s="171" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="30"/>
@@ -3833,20 +4439,20 @@
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="2:6" s="35" customFormat="1" ht="21" customHeight="1">
-      <c r="B8" s="205" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="206" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="206" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="207" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="208" t="s">
-        <v>252</v>
+      <c r="B8" s="202" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="203" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="203" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="204" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="205" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="25.5">
@@ -3854,16 +4460,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="129" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>34</v>
+        <v>84</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="25.5">
@@ -3871,16 +4477,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>35</v>
+        <v>88</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="25.5">
@@ -3888,29 +4494,29 @@
         <v>3</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.5">
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="77"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="38"/>
       <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6" ht="13.5">
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="97"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="40"/>
       <c r="F13" s="39"/>
     </row>
@@ -3993,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -4005,295 +4611,266 @@
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="8"/>
-    <col min="5" max="5" width="19.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="8" customWidth="1"/>
-    <col min="7" max="8" width="33.125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="8"/>
+    <col min="7" max="7" width="33.125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1">
-      <c r="B1" s="219" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="B1" s="206" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="208" t="str">
+        <f>[2]表紙!C2</f>
+        <v>テスト項目書</v>
+      </c>
+      <c r="D1" s="208"/>
+      <c r="E1" s="193" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="222" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="223"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="206" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="208">
+        <f>[2]表紙!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="208"/>
+      <c r="E2" s="193" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="222" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="223"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1">
-      <c r="B3" s="186" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="217" t="str">
-        <f>表紙!C4</f>
-        <v>Vietnamese Medicinal Plants Network</v>
-      </c>
-      <c r="D3" s="217"/>
-      <c r="E3" s="204" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="54"/>
+      <c r="B3" s="207" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="208" t="str">
+        <f>C2&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
+        <v>0_System Test Report_v1.0</v>
+      </c>
+      <c r="D3" s="208"/>
+      <c r="E3" s="193" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="222" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" s="223"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="B4" s="186" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="217" t="str">
-        <f>表紙!C5</f>
-        <v>VMN</v>
-      </c>
-      <c r="D4" s="217"/>
-      <c r="E4" s="204" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" s="54"/>
+      <c r="B4" s="207" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="B5" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="217" t="str">
-        <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
-        <v>VMN_Integration Test Report_v1.0</v>
-      </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="204" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="220">
-        <v>42422</v>
-      </c>
-      <c r="G5" s="217"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="59"/>
-      <c r="B10" s="130" t="s">
+      <c r="B8" s="202" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="210" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="211" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="210" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="212" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="213" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="214">
         <v>1</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="59"/>
-      <c r="B11" s="131">
-        <v>1</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="64">
+      <c r="C9" s="215" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="216">
         <f>'User Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E9" s="216">
         <f>'User Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F9" s="216">
         <f>'User Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="G11" s="65">
-        <f>'User Module'!E6</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="131">
+      <c r="G9" s="216">
+        <f>'User Module'!C6</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="214">
         <v>2</v>
       </c>
-      <c r="C12" s="167" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="64">
+      <c r="C10" s="215" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="216">
         <f>'Mod Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E10" s="216">
         <f>'Mod Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F10" s="216">
         <f>'Mod Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="G12" s="65">
-        <f>'Mod Module'!E6</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="63"/>
-      <c r="B13" s="131">
+      <c r="G10" s="216">
+        <f>'Mod Module'!C6</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5">
+      <c r="A11" s="56"/>
+      <c r="B11" s="214">
         <v>3</v>
       </c>
-      <c r="C13" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="64">
+      <c r="C11" s="217" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="216">
         <f>'Admin Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E11" s="216">
         <f>'Admin Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F11" s="216">
         <f>'Admin Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="G13" s="65">
-        <f>'Admin Module'!E6</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="58"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="67">
-        <f>SUM(D11:D13)</f>
+      <c r="G11" s="216">
+        <f>'Admin Module'!C6</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="218"/>
+      <c r="C12" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="220">
+        <f>SUM(D9:D11)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="67">
-        <f>SUM(E11:E13)</f>
+      <c r="E12" s="220">
+        <f>SUM(E9:E11)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="67">
-        <f>SUM(F9:F13)</f>
+      <c r="F12" s="220">
+        <f>SUM(F9:F11)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="68">
-        <f>SUM(G11:G13)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="58"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="226" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="72">
-        <f>(D14+E14)*100/(G14-F14)</f>
+      <c r="G12" s="221">
+        <f>SUM(G9:G11)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="57"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25">
+      <c r="B14" s="55"/>
+      <c r="C14" s="209" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="60">
+        <f>(D12+E12)*100/(G12-F12)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="2:7" ht="14.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="226" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="72">
-        <f>D14*100/(G14-F14)</f>
+      <c r="F14" s="55"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="B15" s="55"/>
+      <c r="C15" s="209" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="60">
+        <f>D12*100/(G12-F12)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="2:7" ht="14.25">
-      <c r="C19" s="166"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="7">
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" location="Admin_Function!A1" display="Admin_function"/>
-    <hyperlink ref="C11" location="User_Function!A1" display="User_function"/>
-    <hyperlink ref="C12" location="Mod_Function!A1" display="Mod_Function"/>
+    <hyperlink ref="C9" location="'User Module'!A1" display="User Module"/>
+    <hyperlink ref="C11" location="'Admin Module'!A1" display="Admin Module"/>
+    <hyperlink ref="C10" location="'Mod Module'!A1" display="Mod Module"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -4310,1320 +4887,1416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="116" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="92" customWidth="1"/>
-    <col min="3" max="3" width="33" style="92" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="92" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="92" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="92" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="96" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="92" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="95" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.125" style="92"/>
+    <col min="1" max="1" width="15.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="33" style="78" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="78" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="78" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="81" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="A1" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="225" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A3" s="225" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="127" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A4" s="225" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="177" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A5" s="225" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="226" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="226" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="227" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="228" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="229"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="95">
+        <f>COUNTIF(F11:G232,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="74">
+        <f>COUNTIF(F11:G679,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="74">
+        <f>E6-D6-B6-A6</f>
+        <v>104</v>
+      </c>
+      <c r="D6" s="75">
+        <f>COUNTIF(F11:G679,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="178">
+        <f>COUNTA(A11:A236)*2</f>
+        <v>104</v>
+      </c>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="109" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A7" s="122"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A8" s="122"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A9" s="96"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+    </row>
+    <row r="10" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A10" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="222" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="223" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="128" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="112">
-        <f>COUNTIF(F11:G226,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="88">
-        <f>COUNTIF(F11:G673,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="88">
-        <f>E6-D6-B6-A6</f>
-        <v>48</v>
-      </c>
-      <c r="D6" s="89">
-        <f>COUNTIF(F11:G673,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="224">
-        <f>COUNTA(A11:A230)</f>
-        <v>48</v>
-      </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="150"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
-    </row>
-    <row r="10" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A10" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="82"/>
+      <c r="B10" s="232" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="232" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="232" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="233" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" s="232" t="s">
+        <v>348</v>
+      </c>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="180" t="str">
+      <c r="A12" s="150" t="str">
         <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-2]</v>
       </c>
-      <c r="B12" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="181"/>
-      <c r="B13" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="82"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="180" t="str">
+      <c r="A14" s="150" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-4]</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="180" t="str">
+      <c r="A15" s="150" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-5]</v>
       </c>
-      <c r="B15" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="168" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="82"/>
+      <c r="B15" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="142" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="138"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="181"/>
-      <c r="B16" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="180" t="str">
+      <c r="A17" s="150" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-7]</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="82"/>
+      <c r="B17" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="89"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="70"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="181"/>
-      <c r="B18" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="82"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="70"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="78" t="str">
+      <c r="A19" s="66" t="str">
         <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-9]</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="82"/>
+      <c r="B19" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="78" t="str">
+      <c r="A20" s="66" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-10]</v>
       </c>
-      <c r="B20" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="82"/>
+      <c r="B20" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="89"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="181" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="92"/>
+      <c r="A21" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="78" t="str">
+      <c r="A22" s="66" t="str">
         <f t="shared" ref="A22:A26" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-12]</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="92"/>
+      <c r="B22" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="89"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="181" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="92"/>
+      <c r="A23" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="78" t="str">
+      <c r="A24" s="66" t="str">
         <f t="shared" si="1"/>
         <v>[User Module-14]</v>
       </c>
-      <c r="B24" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="103"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="92"/>
+      <c r="B24" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="89"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="181" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="92"/>
+      <c r="A25" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="78"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="78" t="str">
+      <c r="A26" s="66" t="str">
         <f t="shared" si="1"/>
         <v>[User Module-16]</v>
       </c>
-      <c r="B26" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="173" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="175" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="92"/>
+      <c r="B26" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="143" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="89"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="139" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="92"/>
+      <c r="A27" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="78"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="103" t="str">
-        <f t="shared" ref="A28:A44" si="2">IF(OR(B28&lt;&gt;"",D28&lt;E27&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A28" s="89" t="str">
+        <f t="shared" ref="A28:A48" si="2">IF(OR(B28&lt;&gt;"",D28&lt;E27&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-18]</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="92"/>
+      <c r="E28" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="78"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="92"/>
+      <c r="A29" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="78"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="103" t="str">
+      <c r="A30" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-20]</v>
       </c>
-      <c r="B30" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="92"/>
+      <c r="B30" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="78"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="92"/>
+      <c r="A31" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A32" s="103" t="str">
+      <c r="A32" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-22]</v>
       </c>
-      <c r="B32" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="92"/>
+      <c r="B32" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="78"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="92"/>
+      <c r="A33" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="78"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A34" s="103" t="str">
+      <c r="A34" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-24]</v>
       </c>
-      <c r="B34" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="92"/>
+      <c r="B34" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="78"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="139" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="92"/>
+      <c r="A35" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="78"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A36" s="103" t="str">
+      <c r="A36" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-26]</v>
       </c>
-      <c r="B36" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="92"/>
+      <c r="B36" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="78"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="92"/>
+      <c r="A37" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="78"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" s="103" t="str">
+      <c r="A38" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-28]</v>
       </c>
-      <c r="B38" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="92"/>
+      <c r="B38" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="78"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="92"/>
-    </row>
-    <row r="40" spans="1:10" s="139" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="103" t="str">
+      <c r="A39" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="78"/>
+    </row>
+    <row r="40" spans="1:10" s="114" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-30]</v>
       </c>
-      <c r="B40" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
-    </row>
-    <row r="41" spans="1:10" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="139" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="138"/>
-    </row>
-    <row r="42" spans="1:10" s="158" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="103" t="str">
+      <c r="B40" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="90"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="92"/>
+    </row>
+    <row r="41" spans="1:10" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="113"/>
+    </row>
+    <row r="42" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-32]</v>
       </c>
-      <c r="B42" s="103" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="104" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
-    </row>
-    <row r="43" spans="1:10" s="158" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="138"/>
-    </row>
-    <row r="44" spans="1:10" s="158" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="103" t="str">
+      <c r="B42" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="92"/>
+    </row>
+    <row r="43" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="113"/>
+    </row>
+    <row r="44" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="89" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-34]</v>
       </c>
-      <c r="B44" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
-    </row>
-    <row r="45" spans="1:10" s="158" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A45" s="161"/>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="164"/>
-    </row>
-    <row r="46" spans="1:10" s="158" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A46" s="161"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="162"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="164"/>
-    </row>
-    <row r="47" spans="1:10" s="158" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="139"/>
-      <c r="B47" s="139" t="s">
+      <c r="B44" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="90"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="92"/>
+    </row>
+    <row r="45" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="113"/>
+    </row>
+    <row r="46" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="89" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-36]</v>
+      </c>
+      <c r="B46" s="142" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="142" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="142" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="160"/>
+    </row>
+    <row r="47" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="113"/>
+    </row>
+    <row r="48" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="142" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-38]</v>
+      </c>
+      <c r="B48" s="142" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="158" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="159"/>
+      <c r="I48" s="160"/>
+    </row>
+    <row r="49" spans="1:9" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="142"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="160"/>
+    </row>
+    <row r="50" spans="1:9" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="142"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="160"/>
+    </row>
+    <row r="51" spans="1:9" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="133"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="136"/>
+    </row>
+    <row r="52" spans="1:9" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="133"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="136"/>
+    </row>
+    <row r="53" spans="1:9" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="161"/>
+      <c r="B53" s="161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="173"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="174"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="174"/>
+      <c r="H53" s="174"/>
+      <c r="I53" s="175"/>
+    </row>
+    <row r="54" spans="1:9" s="114" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="126"/>
+      <c r="B54" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+    </row>
+    <row r="55" spans="1:9" s="131" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A54)+1)</f>
+        <v>ID-36</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="131" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
+        <v>ID-37</v>
+      </c>
+      <c r="B56" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="131" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
+        <v>ID-38</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
+        <v>ID-39</v>
+      </c>
+      <c r="B58" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
+        <v>ID-40</v>
+      </c>
+      <c r="B59" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="114"/>
+      <c r="B60" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+    </row>
+    <row r="61" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A61" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
+        <v>ID-41</v>
+      </c>
+      <c r="B61" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A62" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A61)+1)</f>
+        <v>ID-42</v>
+      </c>
+      <c r="B62" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A63" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
+        <v>ID-43</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A64" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
+        <v>ID-44</v>
+      </c>
+      <c r="B64" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A65" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
+        <v>ID-45</v>
+      </c>
+      <c r="B65" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A66" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
+        <v>ID-46</v>
+      </c>
+      <c r="B66" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A67" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
+        <v>ID-47</v>
+      </c>
+      <c r="B67" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-    </row>
-    <row r="48" spans="1:10" s="139" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="154"/>
-      <c r="B48" s="155" t="s">
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A68" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A67)+1)</f>
+        <v>ID-48</v>
+      </c>
+      <c r="B68" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-    </row>
-    <row r="49" spans="1:9" s="159" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A49" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A48)+1)</f>
-        <v>ID-32</v>
-      </c>
-      <c r="B49" s="103" t="s">
+      <c r="C68" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="103" t="s">
+      <c r="D68" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="103" t="s">
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A69" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A68)+1)</f>
+        <v>ID-49</v>
+      </c>
+      <c r="B69" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="157" t="s">
+      <c r="C69" s="89" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="159" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A50" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A49)+1)</f>
-        <v>ID-33</v>
-      </c>
-      <c r="B50" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="157" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="159" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A50)+1)</f>
-        <v>ID-34</v>
-      </c>
-      <c r="B51" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="157" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="158" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A51)+1)</f>
-        <v>ID-35</v>
-      </c>
-      <c r="B52" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="157" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A53" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A52)+1)</f>
-        <v>ID-36</v>
-      </c>
-      <c r="B53" s="103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="157" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="139"/>
-      <c r="B54" s="139" t="s">
+      <c r="D69" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-    </row>
-    <row r="55" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A55" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A54)+1)</f>
-        <v>ID-37</v>
-      </c>
-      <c r="B55" s="103" t="s">
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A70" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A69)+1)</f>
+        <v>ID-50</v>
+      </c>
+      <c r="B70" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
-        <v>ID-38</v>
-      </c>
-      <c r="B56" s="103" t="s">
+      <c r="C70" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="103" t="s">
+      <c r="D70" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="103" t="s">
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A71" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A70)+1)</f>
+        <v>ID-51</v>
+      </c>
+      <c r="B71" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A57" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
-        <v>ID-39</v>
-      </c>
-      <c r="B57" s="103" t="s">
+      <c r="C71" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="103" t="s">
+      <c r="D71" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
-        <v>ID-40</v>
-      </c>
-      <c r="B58" s="103" t="s">
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A72" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A71)+1)</f>
+        <v>ID-52</v>
+      </c>
+      <c r="B72" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="103" t="s">
+      <c r="C72" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A59" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
-        <v>ID-41</v>
-      </c>
-      <c r="B59" s="103" t="s">
+      <c r="D72" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="103" t="s">
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A73" s="89" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A72)+1)</f>
+        <v>ID-53</v>
+      </c>
+      <c r="B73" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="103" t="s">
+      <c r="C73" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
-        <v>ID-42</v>
-      </c>
-      <c r="B60" s="103" t="s">
+      <c r="D73" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A61" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
-        <v>ID-43</v>
-      </c>
-      <c r="B61" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A62" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A61)+1)</f>
-        <v>ID-44</v>
-      </c>
-      <c r="B62" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A63" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
-        <v>ID-45</v>
-      </c>
-      <c r="B63" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A64" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
-        <v>ID-46</v>
-      </c>
-      <c r="B64" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A65" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
-        <v>ID-47</v>
-      </c>
-      <c r="B65" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A66" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
-        <v>ID-48</v>
-      </c>
-      <c r="B66" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A67" s="103" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
-        <v>ID-49</v>
-      </c>
-      <c r="B67" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103" t="s">
-        <v>53</v>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="89" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5632,7 +6305,8 @@
       <dataRef ref="K2:K6" sheet="User Module"/>
     </dataRefs>
   </dataConsolidate>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C53:I53"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -5640,17 +6314,17 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G68:G65298 F14:F15 F17 F12:G12 G11 F19:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F26 G74:G65304 F14:F15 F17 F12:G12 G11 G1:G4 G6:G9">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G14:G15 G17 G19:G26">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:I53 GJ42:GQ47 QF42:QM47 AAB42:AAI47 AJX42:AKE47 ATT42:AUA47 BDP42:BDW47 BNL42:BNS47 BXH42:BXO47 CHD42:CHK47 CQZ42:CRG47 DAV42:DBC47 DKR42:DKY47 DUN42:DUU47 EEJ42:EEQ47 EOF42:EOM47 EYB42:EYI47 FHX42:FIE47 FRT42:FSA47 GBP42:GBW47 GLL42:GLS47 GVH42:GVO47 HFD42:HFK47 HOZ42:HPG47 HYV42:HZC47 IIR42:IIY47 ISN42:ISU47 JCJ42:JCQ47 JMF42:JMM47 JWB42:JWI47 KFX42:KGE47 KPT42:KQA47 KZP42:KZW47 LJL42:LJS47 LTH42:LTO47 MDD42:MDK47 MMZ42:MNG47 MWV42:MXC47 NGR42:NGY47 NQN42:NQU47 OAJ42:OAQ47 OKF42:OKM47 OUB42:OUI47 PDX42:PEE47 PNT42:POA47 PXP42:PXW47 QHL42:QHS47 QRH42:QRO47 RBD42:RBK47 RKZ42:RLG47 RUV42:RVC47 SER42:SEY47 SON42:SOU47 SYJ42:SYQ47 TIF42:TIM47 TSB42:TSI47 UBX42:UCE47 ULT42:UMA47 UVP42:UVW47 VFL42:VFS47 VPH42:VPO47 VZD42:VZK47 WIZ42:WJG47 E55:I67 WIZ49:WJG60 GJ49:GQ60 QF49:QM60 AAB49:AAI60 AJX49:AKE60 ATT49:AUA60 BDP49:BDW60 BNL49:BNS60 BXH49:BXO60 CHD49:CHK60 CQZ49:CRG60 DAV49:DBC60 DKR49:DKY60 DUN49:DUU60 EEJ49:EEQ60 EOF49:EOM60 EYB49:EYI60 FHX49:FIE60 FRT49:FSA60 GBP49:GBW60 GLL49:GLS60 GVH49:GVO60 HFD49:HFK60 HOZ49:HPG60 HYV49:HZC60 IIR49:IIY60 ISN49:ISU60 JCJ49:JCQ60 JMF49:JMM60 JWB49:JWI60 KFX49:KGE60 KPT49:KQA60 KZP49:KZW60 LJL49:LJS60 LTH49:LTO60 MDD49:MDK60 MMZ49:MNG60 MWV49:MXC60 NGR49:NGY60 NQN49:NQU60 OAJ49:OAQ60 OKF49:OKM60 OUB49:OUI60 PDX49:PEE60 PNT49:POA60 PXP49:PXW60 QHL49:QHS60 QRH49:QRO60 RBD49:RBK60 RKZ49:RLG60 RUV49:RVC60 SER49:SEY60 SON49:SOU60 SYJ49:SYQ60 TIF49:TIM60 TSB49:TSI60 UBX49:UCE60 ULT49:UMA60 UVP49:UVW60 VFL49:VFS60 VPH49:VPO60 VZD49:VZK60 WJJ40:WJJ60 VZN40:VZN60 VPR40:VPR60 VFV40:VFV60 UVZ40:UVZ60 UMD40:UMD60 UCH40:UCH60 TSL40:TSL60 TIP40:TIP60 SYT40:SYT60 SOX40:SOX60 SFB40:SFB60 RVF40:RVF60 RLJ40:RLJ60 RBN40:RBN60 QRR40:QRR60 QHV40:QHV60 PXZ40:PXZ60 POD40:POD60 PEH40:PEH60 OUL40:OUL60 OKP40:OKP60 OAT40:OAT60 NQX40:NQX60 NHB40:NHB60 MXF40:MXF60 MNJ40:MNJ60 MDN40:MDN60 LTR40:LTR60 LJV40:LJV60 KZZ40:KZZ60 KQD40:KQD60 KGH40:KGH60 JWL40:JWL60 JMP40:JMP60 JCT40:JCT60 ISX40:ISX60 IJB40:IJB60 HZF40:HZF60 HPJ40:HPJ60 HFN40:HFN60 GVR40:GVR60 GLV40:GLV60 GBZ40:GBZ60 FSD40:FSD60 FIH40:FIH60 EYL40:EYL60 EOP40:EOP60 EET40:EET60 DUX40:DUX60 DLB40:DLB60 DBF40:DBF60 CRJ40:CRJ60 CHN40:CHN60 BXR40:BXR60 BNV40:BNV60 BDZ40:BDZ60 AUD40:AUD60 AKH40:AKH60 AAL40:AAL60 QP40:QP60 GT40:GT60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55:I59 GJ42:GQ53 QF42:QM53 AAB42:AAI53 AJX42:AKE53 ATT42:AUA53 BDP42:BDW53 BNL42:BNS53 BXH42:BXO53 CHD42:CHK53 CQZ42:CRG53 DAV42:DBC53 DKR42:DKY53 DUN42:DUU53 EEJ42:EEQ53 EOF42:EOM53 EYB42:EYI53 FHX42:FIE53 FRT42:FSA53 GBP42:GBW53 GLL42:GLS53 GVH42:GVO53 HFD42:HFK53 HOZ42:HPG53 HYV42:HZC53 IIR42:IIY53 ISN42:ISU53 JCJ42:JCQ53 JMF42:JMM53 JWB42:JWI53 KFX42:KGE53 KPT42:KQA53 KZP42:KZW53 LJL42:LJS53 LTH42:LTO53 MDD42:MDK53 MMZ42:MNG53 MWV42:MXC53 NGR42:NGY53 NQN42:NQU53 OAJ42:OAQ53 OKF42:OKM53 OUB42:OUI53 PDX42:PEE53 PNT42:POA53 PXP42:PXW53 QHL42:QHS53 QRH42:QRO53 RBD42:RBK53 RKZ42:RLG53 RUV42:RVC53 SER42:SEY53 SON42:SOU53 SYJ42:SYQ53 TIF42:TIM53 TSB42:TSI53 UBX42:UCE53 ULT42:UMA53 UVP42:UVW53 VFL42:VFS53 VPH42:VPO53 VZD42:VZK53 WIZ42:WJG53 E61:I73 WIZ55:WJG66 GJ55:GQ66 QF55:QM66 AAB55:AAI66 AJX55:AKE66 ATT55:AUA66 BDP55:BDW66 BNL55:BNS66 BXH55:BXO66 CHD55:CHK66 CQZ55:CRG66 DAV55:DBC66 DKR55:DKY66 DUN55:DUU66 EEJ55:EEQ66 EOF55:EOM66 EYB55:EYI66 FHX55:FIE66 FRT55:FSA66 GBP55:GBW66 GLL55:GLS66 GVH55:GVO66 HFD55:HFK66 HOZ55:HPG66 HYV55:HZC66 IIR55:IIY66 ISN55:ISU66 JCJ55:JCQ66 JMF55:JMM66 JWB55:JWI66 KFX55:KGE66 KPT55:KQA66 KZP55:KZW66 LJL55:LJS66 LTH55:LTO66 MDD55:MDK66 MMZ55:MNG66 MWV55:MXC66 NGR55:NGY66 NQN55:NQU66 OAJ55:OAQ66 OKF55:OKM66 OUB55:OUI66 PDX55:PEE66 PNT55:POA66 PXP55:PXW66 QHL55:QHS66 QRH55:QRO66 RBD55:RBK66 RKZ55:RLG66 RUV55:RVC66 SER55:SEY66 SON55:SOU66 SYJ55:SYQ66 TIF55:TIM66 TSB55:TSI66 UBX55:UCE66 ULT55:UMA66 UVP55:UVW66 VFL55:VFS66 VPH55:VPO66 VZD55:VZK66 WJJ40:WJJ66 VZN40:VZN66 VPR40:VPR66 VFV40:VFV66 UVZ40:UVZ66 UMD40:UMD66 UCH40:UCH66 TSL40:TSL66 TIP40:TIP66 SYT40:SYT66 SOX40:SOX66 SFB40:SFB66 RVF40:RVF66 RLJ40:RLJ66 RBN40:RBN66 QRR40:QRR66 QHV40:QHV66 PXZ40:PXZ66 POD40:POD66 PEH40:PEH66 OUL40:OUL66 OKP40:OKP66 OAT40:OAT66 NQX40:NQX66 NHB40:NHB66 MXF40:MXF66 MNJ40:MNJ66 MDN40:MDN66 LTR40:LTR66 LJV40:LJV66 KZZ40:KZZ66 KQD40:KQD66 KGH40:KGH66 JWL40:JWL66 JMP40:JMP66 JCT40:JCT66 ISX40:ISX66 IJB40:IJB66 HZF40:HZF66 HPJ40:HPJ66 HFN40:HFN66 GVR40:GVR66 GLV40:GLV66 GBZ40:GBZ66 FSD40:FSD66 FIH40:FIH66 EYL40:EYL66 EOP40:EOP66 EET40:EET66 DUX40:DUX66 DLB40:DLB66 DBF40:DBF66 CRJ40:CRJ66 CHN40:CHN66 BXR40:BXR66 BNV40:BNV66 BDZ40:BDZ66 AUD40:AUD66 AKH40:AKH66 AAL40:AAL66 QP40:QP66 GT40:GT66">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F30:G30 F32:G46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F30:G30 F32:G52">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5670,417 +6344,756 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="116" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="92" customWidth="1"/>
-    <col min="3" max="3" width="33" style="92" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="92" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="92" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="92" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="96" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="92" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="95" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="92" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="92"/>
-    <col min="17" max="17" width="0" style="92" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="92"/>
+    <col min="1" max="1" width="13.875" style="97" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="78" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="78" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="78" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="78" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="81" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="78" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="78"/>
+    <col min="17" max="17" width="0" style="78" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="117" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
-    </row>
-    <row r="2" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A2" s="121" t="s">
+    <row r="1" spans="1:10" s="98" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
+    </row>
+    <row r="2" spans="1:10" s="98" customFormat="1" ht="29.25">
+      <c r="A2" s="225" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="176" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="J2" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="225" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="176" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="J3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="J2" s="82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="117" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="221" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="J3" s="82" t="s">
+    </row>
+    <row r="4" spans="1:10" s="98" customFormat="1" ht="15">
+      <c r="A4" s="225" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="177" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="J4" s="71"/>
+    </row>
+    <row r="5" spans="1:10" s="98" customFormat="1" ht="15">
+      <c r="A5" s="225" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="J5" s="70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A4" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="222" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="J4" s="83"/>
-    </row>
-    <row r="5" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A5" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="225" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="J5" s="82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="117" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="112">
-        <f>COUNTIF(F11:G251,"Pass")</f>
+    <row r="6" spans="1:10" s="98" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="95">
+        <f>COUNTIF(F11:G247,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="88">
-        <f>COUNTIF(F11:G698,"Fail")</f>
+      <c r="B6" s="74">
+        <f>COUNTIF(F11:G694,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="74">
         <f>E6-D6-B6-A6</f>
+        <v>52</v>
+      </c>
+      <c r="D6" s="75">
+        <f>COUNTIF(F11:G694,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="178">
+        <f>COUNTA(A11:A252)*2</f>
+        <v>52</v>
+      </c>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="J6" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="98" customFormat="1" ht="14.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" spans="1:10" s="98" customFormat="1" ht="14.25">
+      <c r="A8" s="122"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" s="98" customFormat="1"/>
+    <row r="10" spans="1:10" s="98" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="232" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="232" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="232" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="89">
-        <f>COUNTIF(F11:G698,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="224">
-        <f>COUNTA(A11:A256)*2</f>
-        <v>20</v>
-      </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="J6" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" s="117" customFormat="1"/>
-    <row r="10" spans="1:10" s="117" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="117" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="115"/>
-      <c r="B11" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="160"/>
-    </row>
-    <row r="12" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="135" t="str">
-        <f t="shared" ref="A12:A13" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="G10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="233" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" s="232" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A11" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="78"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A12" s="110" t="str">
+        <f t="shared" ref="A12:A38" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-2]</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="140"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="135" t="str">
+      <c r="B12" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A13" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="120"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A14" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-3]</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="168" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="92"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="135"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="92"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="135"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="92"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="92"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A18" s="135" t="str">
-        <f t="shared" ref="A18:A24" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Mod_login-4]</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="115" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="117"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A15" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="120"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A16" s="110" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-6]</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="117"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A17" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="120"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A18" s="89" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-8]</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A19" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="147"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="135" t="str">
-        <f t="shared" si="1"/>
+      <c r="B18" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A19" s="182"/>
+      <c r="B19" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="180"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A20" s="89" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-10]</v>
       </c>
-      <c r="B20" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="144"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="147"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A22" s="135" t="str">
-        <f t="shared" si="1"/>
+      <c r="B20" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A21" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-11]</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A22" s="89" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-12]</v>
       </c>
-      <c r="B22" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="144"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A23" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="147"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A24" s="135" t="str">
-        <f t="shared" si="1"/>
+      <c r="B22" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="186" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A23" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-13]</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="186" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A24" s="89" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-14]</v>
       </c>
-      <c r="B24" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="144"/>
+      <c r="B24" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="186" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A25" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-15]</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="186" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A26" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-16]</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A27" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-17]</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="186" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A28" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-18]</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="186" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A29" s="182"/>
+      <c r="B29" s="118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="180"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A30" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-20]</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="186" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A31" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-21]</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="186" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A32" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-22]</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="186" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A33" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-23]</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="186" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="187"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A34" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-24]</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="186" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="187"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A35" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-25]</v>
+      </c>
+      <c r="B35" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="186" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="187"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A36" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-26]</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="186" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="187"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A37" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-27]</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" s="186" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="187"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A38" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-28]</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="186" t="s">
+        <v>296</v>
+      </c>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6090,8 +7103,8 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F12:G13 F15:G17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F11:G11">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
@@ -6114,464 +7127,527 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="116" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="92" customWidth="1"/>
-    <col min="3" max="3" width="33" style="92" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="92" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="92" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="92" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="92" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="96" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="92" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="95" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="92" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="92"/>
-    <col min="17" max="17" width="0" style="92" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="92"/>
+    <col min="1" max="1" width="18.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="78" customWidth="1"/>
+    <col min="3" max="3" width="33" style="78" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="78" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="78" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="78" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="81" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="78" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="78"/>
+    <col min="17" max="17" width="0" style="78" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="117" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
-    </row>
-    <row r="2" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A2" s="121" t="s">
+    <row r="1" spans="1:10" s="98" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
+    </row>
+    <row r="2" spans="1:10" s="98" customFormat="1" ht="15">
+      <c r="A2" s="225" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="J2" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="225" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="176" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="J3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="J2" s="82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="117" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="221" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="J3" s="82" t="s">
+    </row>
+    <row r="4" spans="1:10" s="98" customFormat="1" ht="15">
+      <c r="A4" s="225" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="177" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="J4" s="71"/>
+    </row>
+    <row r="5" spans="1:10" s="98" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="225" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="226" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="226" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="227" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="228" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="229"/>
+      <c r="G5" s="230"/>
+      <c r="J5" s="70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A4" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="222" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="J4" s="83"/>
-    </row>
-    <row r="5" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A5" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="225" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="J5" s="82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="117" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="112">
-        <f>COUNTIF(F11:G261,"Pass")</f>
+    <row r="6" spans="1:10" s="98" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="95">
+        <f>COUNTIF(F11:G260,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="88">
-        <f>COUNTIF(F11:G708,"Fail")</f>
+      <c r="B6" s="74">
+        <f>COUNTIF(F11:G707,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="74">
         <f>E6-D6-B6-A6</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="89">
-        <f>COUNTIF(F11:G708,"N/A")</f>
+        <v>22</v>
+      </c>
+      <c r="D6" s="75">
+        <f>COUNTIF(F11:G707,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
-        <f>COUNTA(A11:A265)</f>
-        <v>5</v>
-      </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="J6" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" s="117" customFormat="1" ht="14.25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" s="117" customFormat="1"/>
-    <row r="10" spans="1:10" s="117" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="117" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="145"/>
-      <c r="B11" s="146" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="147"/>
-    </row>
-    <row r="12" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="135" t="str">
+      <c r="E6" s="178">
+        <f>COUNTA(A11:A264)*2</f>
+        <v>22</v>
+      </c>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="J6" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="98" customFormat="1" ht="14.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" spans="1:10" s="98" customFormat="1" ht="14.25">
+      <c r="A8" s="122"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" s="98" customFormat="1"/>
+    <row r="10" spans="1:10" s="98" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="232" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="232" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="232" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="233" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" s="232" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="118"/>
+      <c r="B11" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="120"/>
+    </row>
+    <row r="12" spans="1:10" s="84" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="110" t="str">
         <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-2]</v>
       </c>
-      <c r="B12" s="183" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="183" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="148" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="185"/>
-    </row>
-    <row r="13" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="146" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="147"/>
-    </row>
-    <row r="14" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="135" t="str">
+      <c r="B12" s="153" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+    </row>
+    <row r="13" spans="1:10" s="84" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="120"/>
+    </row>
+    <row r="14" spans="1:10" s="84" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="110" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-4]</v>
       </c>
-      <c r="B14" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="142" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-    </row>
-    <row r="15" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="146" t="s">
+      <c r="B14" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="115" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+    </row>
+    <row r="15" spans="1:10" s="84" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="147"/>
-    </row>
-    <row r="16" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="135" t="str">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="120"/>
+    </row>
+    <row r="16" spans="1:10" s="84" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="110" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-6]</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="D16" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="142" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-    </row>
-    <row r="17" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="147"/>
-    </row>
-    <row r="18" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="135" t="str">
-        <f t="shared" ref="A18:A19" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="E16" s="115" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+    </row>
+    <row r="17" spans="1:10" s="84" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="120"/>
+    </row>
+    <row r="18" spans="1:10" s="84" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="156" t="str">
+        <f t="shared" ref="A18:A27" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-8]</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-    </row>
-    <row r="19" spans="1:10" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="135" t="str">
+      <c r="B18" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="163" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="164"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A19" s="166"/>
+      <c r="B19" s="167" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A20" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-9]</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" s="168" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="187"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="92"/>
+        <v>[Admin_login-10]</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="186" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="186" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="186" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="192"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="92"/>
+      <c r="A21" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-11]</v>
+      </c>
+      <c r="B21" s="142" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="186" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="186" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="186" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="92"/>
+      <c r="A22" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-12]</v>
+      </c>
+      <c r="B22" s="142" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="186" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="186" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="186" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="92"/>
+      <c r="A23" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-13]</v>
+      </c>
+      <c r="B23" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="186" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="186" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="181" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="192"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="92"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="92"/>
+      <c r="A25" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-15]</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="78"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="192"/>
-      <c r="B26" s="192"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="92"/>
+      <c r="A26" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-16]</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="172"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="92"/>
+      <c r="A27" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-17]</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="78"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="192"/>
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="195"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="191"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -6582,7 +7658,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F27:G27 F25:G25 F22:G23 F12:G12 F14:G14 F16:G16 F18:G20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F18:G19 F12:G12 F14:G14 F16:G16 F25:G27">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
